--- a/Input/1.Amplicon/Sample_info.xlsx
+++ b/Input/1.Amplicon/Sample_info.xlsx
@@ -1464,7 +1464,7 @@
   <dimension ref="A1:U91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
